--- a/SecurityDictionary.xlsx
+++ b/SecurityDictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039863D6-4CFB-4DC9-A66C-1695B3D3F592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DC636D-9664-4350-960B-4A5770F29517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2975A15C-7DE5-4143-A013-60C06507A1EB}"/>
+    <workbookView xWindow="1800" yWindow="1185" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{2975A15C-7DE5-4143-A013-60C06507A1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="SystemOperator" sheetId="1" r:id="rId1"/>
@@ -95,16 +95,16 @@
     <t>onetableuser</t>
   </si>
   <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
     <t>(User)</t>
   </si>
   <si>
     <t>(Guest)</t>
+  </si>
+  <si>
+    <t>INSERT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
   </si>
 </sst>
 </file>
@@ -294,7 +294,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2E52A9-E49F-440F-A92D-07306E7876CF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -711,7 +711,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
@@ -771,7 +771,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915478A2-0E3A-4F6C-92E0-7236B00143A2}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +825,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
@@ -849,12 +849,12 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>19</v>
+      <c r="A6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/SecurityDictionary.xlsx
+++ b/SecurityDictionary.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DC636D-9664-4350-960B-4A5770F29517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72012C4-D394-4BB2-82D1-E209D559C8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1185" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{2975A15C-7DE5-4143-A013-60C06507A1EB}"/>
+    <workbookView xWindow="24384" yWindow="6648" windowWidth="21600" windowHeight="11292" activeTab="2" xr2:uid="{2975A15C-7DE5-4143-A013-60C06507A1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="SystemOperator" sheetId="1" r:id="rId1"/>
-    <sheet name="BaseUser" sheetId="2" r:id="rId2"/>
-    <sheet name="StoredProcedureUser" sheetId="3" r:id="rId3"/>
-    <sheet name="AddRemoveUpdateUser" sheetId="4" r:id="rId4"/>
+    <sheet name="GuestUser" sheetId="5" r:id="rId2"/>
+    <sheet name="BaseUser" sheetId="2" r:id="rId3"/>
+    <sheet name="StoredProcedureUser" sheetId="3" r:id="rId4"/>
+    <sheet name="AddRemoveUpdateUser" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>sql user</t>
   </si>
@@ -105,6 +106,15 @@
   </si>
   <si>
     <t>DELETE</t>
+  </si>
+  <si>
+    <t>GuestUser</t>
+  </si>
+  <si>
+    <t>dbo.Location</t>
+  </si>
+  <si>
+    <t>dbo.Lodging</t>
   </si>
 </sst>
 </file>
@@ -686,11 +696,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3DD05C-D882-497B-89FA-A41EFCD0F33A}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2E52A9-E49F-440F-A92D-07306E7876CF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +787,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
@@ -734,11 +810,16 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -746,7 +827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D7F902-40DF-44CD-B2D8-95D84629F595}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -800,11 +881,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915478A2-0E3A-4F6C-92E0-7236B00143A2}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/SecurityDictionary.xlsx
+++ b/SecurityDictionary.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72012C4-D394-4BB2-82D1-E209D559C8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A15755A-1667-470C-8F45-8BB095BD9A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24384" yWindow="6648" windowWidth="21600" windowHeight="11292" activeTab="2" xr2:uid="{2975A15C-7DE5-4143-A013-60C06507A1EB}"/>
+    <workbookView xWindow="22932" yWindow="5052" windowWidth="23256" windowHeight="12456" xr2:uid="{2975A15C-7DE5-4143-A013-60C06507A1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="SystemOperator" sheetId="1" r:id="rId1"/>
     <sheet name="GuestUser" sheetId="5" r:id="rId2"/>
     <sheet name="BaseUser" sheetId="2" r:id="rId3"/>
-    <sheet name="StoredProcedureUser" sheetId="3" r:id="rId4"/>
-    <sheet name="AddRemoveUpdateUser" sheetId="4" r:id="rId5"/>
+    <sheet name="DoomsdayInventoryExec" sheetId="6" r:id="rId4"/>
+    <sheet name="AddUpdateSurvivors" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>sql user</t>
   </si>
@@ -57,9 +57,6 @@
     <t>All Permissions</t>
   </si>
   <si>
-    <t>systemop</t>
-  </si>
-  <si>
     <t>sql_user</t>
   </si>
   <si>
@@ -81,21 +78,9 @@
     <t>db_datareader</t>
   </si>
   <si>
-    <t>baseuser</t>
-  </si>
-  <si>
-    <t>storedprocedureuser</t>
-  </si>
-  <si>
     <t>EXECUTE</t>
   </si>
   <si>
-    <t>dbo.(STORED PROCEDURE HERE)</t>
-  </si>
-  <si>
-    <t>onetableuser</t>
-  </si>
-  <si>
     <t>(User)</t>
   </si>
   <si>
@@ -108,13 +93,37 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>GuestUser</t>
-  </si>
-  <si>
     <t>dbo.Location</t>
   </si>
   <si>
     <t>dbo.Lodging</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>DoomsdayAuthUser</t>
+  </si>
+  <si>
+    <t>DoomsdayGuestUser</t>
+  </si>
+  <si>
+    <t>(Authorized User)</t>
+  </si>
+  <si>
+    <t>DoomsdaySystemOp</t>
+  </si>
+  <si>
+    <t>DoomsdayInventoryExec</t>
+  </si>
+  <si>
+    <t>dbo.UpdateInventoryQuality</t>
+  </si>
+  <si>
+    <t>AddUpdateSurvivors</t>
+  </si>
+  <si>
+    <t>dbo.Person</t>
   </si>
 </sst>
 </file>
@@ -280,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -305,6 +314,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D26A9F-6206-4BC7-9FD1-C6C68CA91777}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,16 +666,16 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="15"/>
@@ -684,10 +696,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -700,19 +712,19 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -721,7 +733,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
@@ -739,21 +751,16 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="17"/>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -763,22 +770,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2E52A9-E49F-440F-A92D-07306E7876CF}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -787,7 +794,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
@@ -804,23 +811,31 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
+      <c r="A4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -828,22 +843,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D7F902-40DF-44CD-B2D8-95D84629F595}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D58F0A-2253-4DAC-B7D9-3E1527FB30FF}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -852,7 +867,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
@@ -870,10 +885,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -886,18 +901,19 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -906,7 +922,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
@@ -924,18 +940,20 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
+      <c r="A6" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/SecurityDictionary.xlsx
+++ b/SecurityDictionary.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A15755A-1667-470C-8F45-8BB095BD9A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238325DB-0F56-4410-9C2E-E3535B7C4925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="5052" windowWidth="23256" windowHeight="12456" xr2:uid="{2975A15C-7DE5-4143-A013-60C06507A1EB}"/>
+    <workbookView xWindow="26964" yWindow="5640" windowWidth="21600" windowHeight="11292" firstSheet="1" activeTab="6" xr2:uid="{2975A15C-7DE5-4143-A013-60C06507A1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="SystemOperator" sheetId="1" r:id="rId1"/>
     <sheet name="GuestUser" sheetId="5" r:id="rId2"/>
-    <sheet name="BaseUser" sheetId="2" r:id="rId3"/>
-    <sheet name="DoomsdayInventoryExec" sheetId="6" r:id="rId4"/>
-    <sheet name="AddUpdateSurvivors" sheetId="4" r:id="rId5"/>
+    <sheet name="InventoryExec" sheetId="6" r:id="rId3"/>
+    <sheet name="SurvivorManager" sheetId="4" r:id="rId4"/>
+    <sheet name="AuthUser" sheetId="2" r:id="rId5"/>
+    <sheet name="RelationManager" sheetId="7" r:id="rId6"/>
+    <sheet name="LocationAdmin" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
   <si>
     <t>sql user</t>
   </si>
@@ -81,9 +83,6 @@
     <t>EXECUTE</t>
   </si>
   <si>
-    <t>(User)</t>
-  </si>
-  <si>
     <t>(Guest)</t>
   </si>
   <si>
@@ -120,10 +119,43 @@
     <t>dbo.UpdateInventoryQuality</t>
   </si>
   <si>
-    <t>AddUpdateSurvivors</t>
-  </si>
-  <si>
     <t>dbo.Person</t>
+  </si>
+  <si>
+    <t>DoomsdaySurvivorManager</t>
+  </si>
+  <si>
+    <t>(Specialty Access)</t>
+  </si>
+  <si>
+    <t>dbo.Adversaries</t>
+  </si>
+  <si>
+    <t>dbo.Allies</t>
+  </si>
+  <si>
+    <t>dbo.AddNewAlly</t>
+  </si>
+  <si>
+    <t>dbo.DeleteAdversary</t>
+  </si>
+  <si>
+    <t>dbo.GetPeopleByLodging</t>
+  </si>
+  <si>
+    <t>DoomsdayLocationAdmin</t>
+  </si>
+  <si>
+    <t>dbo.Location_Power</t>
+  </si>
+  <si>
+    <t>dbo.Location_Water</t>
+  </si>
+  <si>
+    <t>dbo.Location_Inventory</t>
+  </si>
+  <si>
+    <t>db_securityadmin</t>
   </si>
 </sst>
 </file>
@@ -289,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -314,9 +346,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D26A9F-6206-4BC7-9FD1-C6C68CA91777}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -666,7 +700,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>5</v>
@@ -724,7 +758,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -733,7 +767,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
@@ -754,13 +788,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -769,6 +803,128 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D58F0A-2253-4DAC-B7D9-3E1527FB30FF}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915478A2-0E3A-4F6C-92E0-7236B00143A2}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2E52A9-E49F-440F-A92D-07306E7876CF}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -785,7 +941,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -794,7 +950,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
@@ -814,51 +970,51 @@
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>17</v>
+      <c r="C4" s="19" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D58F0A-2253-4DAC-B7D9-3E1527FB30FF}">
-  <dimension ref="A1:C4"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F603880D-8C58-4821-AEB9-949543FF50AF}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -867,7 +1023,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
@@ -885,10 +1041,34 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
+      <c r="C7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -896,24 +1076,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915478A2-0E3A-4F6C-92E0-7236B00143A2}">
-  <dimension ref="A1:C6"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372D0377-9E84-401C-872F-BC6C814EE3CB}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -922,7 +1102,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
@@ -940,20 +1120,51 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="20"/>
+      <c r="C6" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/SecurityDictionary.xlsx
+++ b/SecurityDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238325DB-0F56-4410-9C2E-E3535B7C4925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F3CA4E-B602-44BF-BA49-68D19E409F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26964" yWindow="5640" windowWidth="21600" windowHeight="11292" firstSheet="1" activeTab="6" xr2:uid="{2975A15C-7DE5-4143-A013-60C06507A1EB}"/>
+    <workbookView xWindow="22932" yWindow="5052" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{2975A15C-7DE5-4143-A013-60C06507A1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="SystemOperator" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -348,9 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,12 +910,12 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1056,7 +1054,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
@@ -1064,7 +1062,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
@@ -1133,7 +1131,7 @@
       <c r="A5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C5" t="s">
@@ -1141,13 +1139,13 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="17"/>
       <c r="C6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="17"/>
       <c r="C7" t="s">
         <v>34</v>
       </c>
